--- a/data/experiencia_laboral_docente.xlsx
+++ b/data/experiencia_laboral_docente.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD207A25-73D4-44E2-99A8-95A361D4710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD62C5-9F24-44E1-8186-A54E3FD033B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="945" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>what</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Docente Investigadora - Programa de Comunicación Social y periodismo</t>
+  </si>
+  <si>
+    <t>Posdoctorado</t>
+  </si>
+  <si>
+    <t>Desde 2023</t>
+  </si>
+  <si>
+    <t>Asociación Red de Mujeres Víctimas y Profesionales</t>
+  </si>
+  <si>
+    <t>\textbf{Proyecto: } La necesidad de generar procesos de reparación social a las mujeres víctimas y sobrevivientes de violencias sexuales en el marco del conflicto armado desde el quehacer periodístico. Diversas propuestas de tratamiento según contextos</t>
+  </si>
+  <si>
+    <t>Financiación del Ministerio de Ciencia Tecnología e Innovación - Minciencias</t>
+  </si>
+  <si>
+    <t>Mar 2006 - Nov 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brújula Comunicaciones </t>
+  </si>
+  <si>
+    <t>Trabajo con medios de comunicación, realización de estrategias para acceder a derechos fundamentales</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,197 +1051,236 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
